--- a/data/trans_orig/P6708-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6708-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36736F7D-99AA-4268-ADA1-E7B416AEF537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F696E93-F448-4626-A580-15FBDF310C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C4D240AF-83D8-47D9-B7D5-B06C5776FC77}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{576D01A5-47C1-42A0-8C28-014EBE6C3C46}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="813">
   <si>
     <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2012 (Tasa respuesta: 33,83%)</t>
   </si>
@@ -76,2410 +76,2407 @@
     <t>16,16%</t>
   </si>
   <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
   </si>
   <si>
     <t>12,66%</t>
   </si>
   <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
     <t>7,87%</t>
   </si>
   <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2023 (Tasa respuesta: 10,29%)</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
   </si>
   <si>
     <t>17,36%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
   </si>
   <si>
     <t>9,92%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
   </si>
   <si>
     <t>20,27%</t>
   </si>
   <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
   </si>
   <si>
     <t>21,49%</t>
   </si>
   <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2023 (Tasa respuesta: 10,29%)</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
+    <t>43,54%</t>
   </si>
 </sst>
 </file>
@@ -2891,7 +2888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F7CD79-C368-458F-A896-5F88E29D906F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576BE563-FFE8-449F-9434-864D3DE7B72C}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3102,13 +3099,13 @@
         <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>19</v>
@@ -3117,13 +3114,13 @@
         <v>18316</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -3132,13 +3129,13 @@
         <v>16890</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>36</v>
@@ -3147,19 +3144,19 @@
         <v>35206</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>15</v>
@@ -3168,13 +3165,13 @@
         <v>14642</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -3183,13 +3180,13 @@
         <v>25705</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -3198,10 +3195,10 @@
         <v>40346</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>48</v>
@@ -3380,7 +3377,7 @@
         <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -3389,13 +3386,13 @@
         <v>26484</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>50</v>
@@ -3404,19 +3401,19 @@
         <v>54591</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>91</v>
@@ -3425,13 +3422,13 @@
         <v>93229</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>52</v>
@@ -3440,13 +3437,13 @@
         <v>56406</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>143</v>
@@ -3455,19 +3452,19 @@
         <v>149635</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>92</v>
@@ -3476,13 +3473,13 @@
         <v>90805</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
         <v>65</v>
@@ -3491,13 +3488,13 @@
         <v>68761</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>157</v>
@@ -3506,13 +3503,13 @@
         <v>159566</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,13 +3524,13 @@
         <v>135877</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H14" s="7">
         <v>85</v>
@@ -3542,13 +3539,13 @@
         <v>91285</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>213</v>
@@ -3557,13 +3554,13 @@
         <v>227162</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,7 +3616,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3631,13 +3628,13 @@
         <v>24334</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -3646,13 +3643,13 @@
         <v>22624</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -3661,13 +3658,13 @@
         <v>46958</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3679,13 @@
         <v>36043</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -3697,13 +3694,13 @@
         <v>25851</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
@@ -3712,19 +3709,19 @@
         <v>61894</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>85</v>
@@ -3733,10 +3730,10 @@
         <v>83999</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>125</v>
@@ -3751,10 +3748,10 @@
         <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>153</v>
@@ -3763,19 +3760,19 @@
         <v>156127</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>114</v>
@@ -3784,13 +3781,13 @@
         <v>118247</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -3799,10 +3796,10 @@
         <v>59101</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>136</v>
@@ -3954,13 +3951,13 @@
         <v>19840</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -3969,13 +3966,13 @@
         <v>44699</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +3987,13 @@
         <v>20360</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -4005,13 +4002,13 @@
         <v>16689</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>32</v>
@@ -4020,19 +4017,19 @@
         <v>37049</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>59</v>
@@ -4041,13 +4038,13 @@
         <v>64207</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>38</v>
@@ -4056,13 +4053,13 @@
         <v>46911</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>97</v>
@@ -4071,19 +4068,19 @@
         <v>111118</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>83</v>
@@ -4092,13 +4089,13 @@
         <v>95264</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -4107,13 +4104,13 @@
         <v>51076</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>128</v>
@@ -4122,13 +4119,13 @@
         <v>146340</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,10 +4140,10 @@
         <v>161016</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>186</v>
@@ -4340,7 +4337,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>25</v>
@@ -4385,13 +4382,13 @@
         <v>219</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>220</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>26</v>
@@ -4400,13 +4397,13 @@
         <v>28657</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H31" s="7">
         <v>20</v>
@@ -4415,13 +4412,13 @@
         <v>21173</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>46</v>
@@ -4430,13 +4427,13 @@
         <v>49829</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,13 +4448,13 @@
         <v>84322</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>27</v>
@@ -4466,13 +4463,13 @@
         <v>30733</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>107</v>
@@ -4481,13 +4478,13 @@
         <v>115055</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,7 +4540,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4558,10 +4555,10 @@
         <v>207</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4573,10 +4570,10 @@
         <v>207</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4588,10 +4585,10 @@
         <v>207</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,10 +4606,10 @@
         <v>207</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -4624,10 +4621,10 @@
         <v>207</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -4639,16 +4636,16 @@
         <v>207</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
@@ -4657,13 +4654,13 @@
         <v>1000</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>207</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -4672,13 +4669,13 @@
         <v>891</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>207</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -4687,19 +4684,19 @@
         <v>1890</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>207</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -4711,10 +4708,10 @@
         <v>207</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -4726,10 +4723,10 @@
         <v>207</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -4741,10 +4738,10 @@
         <v>207</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,13 +4756,13 @@
         <v>2016</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>207</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -4774,13 +4771,13 @@
         <v>1947</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>207</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -4789,13 +4786,13 @@
         <v>3964</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>251</v>
+        <v>40</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,13 +4860,13 @@
         <v>106200</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>118</v>
+        <v>251</v>
       </c>
       <c r="H40" s="7">
         <v>85</v>
@@ -4878,13 +4875,13 @@
         <v>89869</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>256</v>
+        <v>110</v>
       </c>
       <c r="M40" s="7">
         <v>180</v>
@@ -4893,13 +4890,13 @@
         <v>196070</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,13 +4911,13 @@
         <v>106454</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>119</v>
+        <v>258</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H41" s="7">
         <v>72</v>
@@ -4929,13 +4926,13 @@
         <v>77061</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M41" s="7">
         <v>168</v>
@@ -4944,19 +4941,19 @@
         <v>183515</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" s="7">
         <v>280</v>
@@ -4965,13 +4962,13 @@
         <v>287894</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H42" s="7">
         <v>184</v>
@@ -4980,13 +4977,13 @@
         <v>202460</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M42" s="7">
         <v>464</v>
@@ -4995,19 +4992,19 @@
         <v>490354</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="7">
         <v>330</v>
@@ -5016,13 +5013,13 @@
         <v>347615</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H43" s="7">
         <v>212</v>
@@ -5031,13 +5028,13 @@
         <v>225815</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M43" s="7">
         <v>542</v>
@@ -5046,13 +5043,13 @@
         <v>573430</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,13 +5064,13 @@
         <v>566698</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H44" s="7">
         <v>320</v>
@@ -5082,13 +5079,13 @@
         <v>350312</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M44" s="7">
         <v>847</v>
@@ -5097,13 +5094,13 @@
         <v>917010</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,7 +5156,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -5181,7 +5178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA0C30B-499A-45EA-AF52-F41387890694}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A227902-93EC-452A-AE45-D1927AFD8744}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5198,7 +5195,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5305,13 +5302,13 @@
         <v>11808</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -5320,13 +5317,13 @@
         <v>9164</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -5335,13 +5332,13 @@
         <v>20973</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,13 +5353,13 @@
         <v>14720</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -5371,13 +5368,13 @@
         <v>10022</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -5386,19 +5383,19 @@
         <v>24742</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>22</v>
@@ -5407,13 +5404,13 @@
         <v>23336</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -5422,13 +5419,13 @@
         <v>28021</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M6" s="7">
         <v>50</v>
@@ -5437,10 +5434,10 @@
         <v>51357</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>319</v>
@@ -5449,7 +5446,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>18</v>
@@ -5491,10 +5488,10 @@
         <v>326</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,13 +5506,13 @@
         <v>9927</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>329</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>331</v>
+        <v>225</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -5524,13 +5521,13 @@
         <v>20148</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>332</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M8" s="7">
         <v>30</v>
@@ -5539,13 +5536,13 @@
         <v>30075</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,13 +5610,13 @@
         <v>30795</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>334</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -5628,13 +5625,13 @@
         <v>30721</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>60</v>
@@ -5643,13 +5640,13 @@
         <v>61516</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +5661,13 @@
         <v>52103</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H11" s="7">
         <v>44</v>
@@ -5679,13 +5676,13 @@
         <v>41595</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>349</v>
+        <v>79</v>
       </c>
       <c r="M11" s="7">
         <v>94</v>
@@ -5694,19 +5691,19 @@
         <v>93698</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>221</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>99</v>
@@ -5715,13 +5712,13 @@
         <v>105735</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H12" s="7">
         <v>81</v>
@@ -5730,13 +5727,13 @@
         <v>76754</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M12" s="7">
         <v>180</v>
@@ -5745,19 +5742,19 @@
         <v>182490</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>77</v>
@@ -5766,13 +5763,13 @@
         <v>77034</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>360</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>361</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -5784,10 +5781,10 @@
         <v>320</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M13" s="7">
         <v>147</v>
@@ -5796,13 +5793,13 @@
         <v>143883</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,13 +5814,13 @@
         <v>78517</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H14" s="7">
         <v>56</v>
@@ -5832,13 +5829,13 @@
         <v>57797</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M14" s="7">
         <v>131</v>
@@ -5847,13 +5844,13 @@
         <v>136315</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>168</v>
+        <v>371</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,7 +5906,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5921,10 +5918,10 @@
         <v>46291</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>376</v>
@@ -5939,10 +5936,10 @@
         <v>377</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="M16" s="7">
         <v>76</v>
@@ -5951,13 +5948,13 @@
         <v>80225</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,10 +5969,10 @@
         <v>64530</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>384</v>
@@ -6014,7 +6011,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>125</v>
@@ -6026,10 +6023,10 @@
         <v>391</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H18" s="7">
         <v>84</v>
@@ -6041,10 +6038,10 @@
         <v>393</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M18" s="7">
         <v>209</v>
@@ -6053,19 +6050,19 @@
         <v>211289</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>92</v>
@@ -6074,13 +6071,13 @@
         <v>97291</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
@@ -6089,13 +6086,13 @@
         <v>73990</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>165</v>
@@ -6104,13 +6101,13 @@
         <v>171281</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>405</v>
+        <v>273</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>406</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6122,13 @@
         <v>120806</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H20" s="7">
         <v>80</v>
@@ -6140,13 +6137,13 @@
         <v>82450</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M20" s="7">
         <v>195</v>
@@ -6155,13 +6152,13 @@
         <v>203256</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>414</v>
+        <v>353</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6226,13 @@
         <v>31164</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>416</v>
+        <v>65</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -6244,13 +6241,13 @@
         <v>28415</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -6259,13 +6256,13 @@
         <v>59579</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>208</v>
+        <v>417</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>161</v>
+        <v>418</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6277,13 @@
         <v>47647</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="H23" s="7">
         <v>36</v>
@@ -6295,13 +6292,13 @@
         <v>39805</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>111</v>
+        <v>423</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="M23" s="7">
         <v>79</v>
@@ -6310,19 +6307,19 @@
         <v>87452</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>80</v>
@@ -6331,13 +6328,13 @@
         <v>89769</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H24" s="7">
         <v>59</v>
@@ -6346,13 +6343,13 @@
         <v>63620</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>134</v>
+        <v>431</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M24" s="7">
         <v>139</v>
@@ -6361,19 +6358,19 @@
         <v>153389</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>87</v>
@@ -6382,13 +6379,13 @@
         <v>95693</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>438</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>439</v>
+        <v>96</v>
       </c>
       <c r="H25" s="7">
         <v>54</v>
@@ -6397,13 +6394,13 @@
         <v>57332</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>442</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>141</v>
@@ -6415,10 +6412,10 @@
         <v>137</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>370</v>
+        <v>440</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6433,13 +6430,13 @@
         <v>103455</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H26" s="7">
         <v>49</v>
@@ -6448,13 +6445,13 @@
         <v>53946</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>141</v>
@@ -6463,10 +6460,10 @@
         <v>157402</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>450</v>
@@ -6558,7 +6555,7 @@
         <v>455</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>456</v>
+        <v>136</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
@@ -6567,13 +6564,13 @@
         <v>33092</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,13 +6585,13 @@
         <v>15496</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H29" s="7">
         <v>16</v>
@@ -6630,7 +6627,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>40</v>
@@ -6681,7 +6678,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>26</v>
@@ -6696,7 +6693,7 @@
         <v>478</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>401</v>
+        <v>479</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -6705,10 +6702,10 @@
         <v>18669</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>480</v>
+        <v>27</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>481</v>
@@ -6720,10 +6717,10 @@
         <v>48358</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>384</v>
+        <v>482</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>482</v>
+        <v>376</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>483</v>
@@ -6744,10 +6741,10 @@
         <v>484</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>444</v>
+        <v>485</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>485</v>
+        <v>235</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -6774,10 +6771,10 @@
         <v>489</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>136</v>
+        <v>490</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6833,7 +6830,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6848,10 +6845,10 @@
         <v>207</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6863,10 +6860,10 @@
         <v>207</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>491</v>
+        <v>394</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6878,7 +6875,7 @@
         <v>207</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>492</v>
@@ -6899,10 +6896,10 @@
         <v>207</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -6938,7 +6935,7 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -6950,10 +6947,10 @@
         <v>207</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6965,10 +6962,10 @@
         <v>207</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>491</v>
+        <v>394</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6980,7 +6977,7 @@
         <v>207</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>492</v>
@@ -6989,7 +6986,7 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>3</v>
@@ -7016,10 +7013,10 @@
         <v>207</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>491</v>
+        <v>394</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -7031,10 +7028,10 @@
         <v>500</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>207</v>
+        <v>501</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7049,13 +7046,13 @@
         <v>3115</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -7064,13 +7061,13 @@
         <v>4007</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>467</v>
+        <v>507</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -7079,13 +7076,13 @@
         <v>7123</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7153,13 +7150,13 @@
         <v>135414</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>511</v>
+        <v>205</v>
       </c>
       <c r="H40" s="7">
         <v>114</v>
@@ -7168,13 +7165,13 @@
         <v>119970</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M40" s="7">
         <v>238</v>
@@ -7183,13 +7180,13 @@
         <v>255384</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7204,13 +7201,13 @@
         <v>194496</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H41" s="7">
         <v>156</v>
@@ -7219,13 +7216,13 @@
         <v>158207</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>523</v>
+        <v>384</v>
       </c>
       <c r="M41" s="7">
         <v>339</v>
@@ -7246,7 +7243,7 @@
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" s="7">
         <v>366</v>
@@ -7273,10 +7270,10 @@
         <v>530</v>
       </c>
       <c r="K42" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="M42" s="7">
         <v>639</v>
@@ -7285,19 +7282,19 @@
         <v>670041</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="7">
         <v>303</v>
@@ -7306,13 +7303,13 @@
         <v>321894</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>537</v>
-      </c>
       <c r="G43" s="7" t="s">
-        <v>538</v>
+        <v>89</v>
       </c>
       <c r="H43" s="7">
         <v>239</v>
@@ -7321,13 +7318,13 @@
         <v>241341</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="M43" s="7">
         <v>542</v>
@@ -7336,13 +7333,13 @@
         <v>563234</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7357,13 +7354,13 @@
         <v>374397</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="H44" s="7">
         <v>231</v>
@@ -7372,13 +7369,13 @@
         <v>243736</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M44" s="7">
         <v>578</v>
@@ -7387,13 +7384,13 @@
         <v>618133</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7449,7 +7446,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -7471,7 +7468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1745A481-EEA1-4CCB-A10E-026A38155665}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1A77C9-6C0C-4CCF-BAF6-3E0DDB726475}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7488,7 +7485,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7595,13 +7592,13 @@
         <v>321</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>207</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>253</v>
+        <v>553</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -7625,7 +7622,7 @@
         <v>5999</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>557</v>
@@ -7676,19 +7673,19 @@
         <v>9647</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>387</v>
+        <v>564</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
@@ -7697,13 +7694,13 @@
         <v>9430</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -7712,13 +7709,13 @@
         <v>4166</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -7727,19 +7724,19 @@
         <v>13596</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -7748,13 +7745,13 @@
         <v>1953</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>207</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -7763,13 +7760,13 @@
         <v>6653</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -7778,13 +7775,13 @@
         <v>8605</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>421</v>
+        <v>581</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>580</v>
+        <v>115</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,13 +7796,13 @@
         <v>6539</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -7814,13 +7811,13 @@
         <v>6942</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -7829,13 +7826,13 @@
         <v>13481</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,13 +7900,13 @@
         <v>16864</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -7918,13 +7915,13 @@
         <v>21206</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -7933,13 +7930,13 @@
         <v>38071</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7954,13 +7951,13 @@
         <v>22963</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>540</v>
+        <v>601</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -7969,13 +7966,13 @@
         <v>15069</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -7984,19 +7981,19 @@
         <v>38032</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>28</v>
@@ -8005,13 +8002,13 @@
         <v>36950</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>542</v>
+        <v>353</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="H12" s="7">
         <v>24</v>
@@ -8020,13 +8017,13 @@
         <v>24639</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="M12" s="7">
         <v>52</v>
@@ -8035,19 +8032,19 @@
         <v>61589</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>8</v>
@@ -8056,13 +8053,13 @@
         <v>13830</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>615</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -8071,13 +8068,13 @@
         <v>19782</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -8086,13 +8083,13 @@
         <v>33612</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>621</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>622</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8128,7 +8125,7 @@
         <v>627</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>628</v>
+        <v>445</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -8137,13 +8134,13 @@
         <v>30793</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>630</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>631</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8199,7 +8196,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8211,13 +8208,13 @@
         <v>17539</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>632</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>634</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -8226,13 +8223,13 @@
         <v>21789</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>637</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -8241,13 +8238,13 @@
         <v>39328</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>638</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8262,13 +8259,13 @@
         <v>13539</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>641</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>642</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -8277,13 +8274,13 @@
         <v>11827</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>644</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>645</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -8292,19 +8289,19 @@
         <v>25367</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>646</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>23</v>
@@ -8313,13 +8310,13 @@
         <v>22518</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>649</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>651</v>
       </c>
       <c r="H18" s="7">
         <v>35</v>
@@ -8328,13 +8325,13 @@
         <v>24051</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>652</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>654</v>
       </c>
       <c r="M18" s="7">
         <v>58</v>
@@ -8343,19 +8340,19 @@
         <v>46569</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>655</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>25</v>
@@ -8364,13 +8361,13 @@
         <v>27096</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>658</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>660</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -8379,13 +8376,13 @@
         <v>15786</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>661</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -8394,13 +8391,13 @@
         <v>42883</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>663</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8415,13 +8412,13 @@
         <v>27759</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>665</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>667</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -8430,13 +8427,13 @@
         <v>25653</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>668</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>670</v>
       </c>
       <c r="M20" s="7">
         <v>61</v>
@@ -8445,13 +8442,13 @@
         <v>53412</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>671</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8519,13 +8516,13 @@
         <v>20128</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>674</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>675</v>
+        <v>598</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -8534,13 +8531,13 @@
         <v>24614</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>676</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>678</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -8549,13 +8546,13 @@
         <v>44741</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>679</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8570,13 +8567,13 @@
         <v>11527</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>684</v>
+        <v>414</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
@@ -8585,13 +8582,13 @@
         <v>10682</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>633</v>
+        <v>251</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>685</v>
+        <v>306</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="M23" s="7">
         <v>29</v>
@@ -8600,19 +8597,19 @@
         <v>22209</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>567</v>
+        <v>685</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>37</v>
@@ -8621,13 +8618,13 @@
         <v>38061</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="H24" s="7">
         <v>61</v>
@@ -8636,13 +8633,13 @@
         <v>37849</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>434</v>
+        <v>688</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="M24" s="7">
         <v>98</v>
@@ -8651,19 +8648,19 @@
         <v>75910</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>693</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>27</v>
@@ -8672,13 +8669,13 @@
         <v>23695</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>696</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>698</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -8687,13 +8684,13 @@
         <v>20529</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>699</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>700</v>
       </c>
       <c r="M25" s="7">
         <v>60</v>
@@ -8702,13 +8699,13 @@
         <v>44224</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>702</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8723,10 +8720,10 @@
         <v>87930</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>705</v>
@@ -8833,7 +8830,7 @@
         <v>713</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -8848,7 +8845,7 @@
         <v>715</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="M28" s="7">
         <v>24</v>
@@ -8857,13 +8854,13 @@
         <v>19016</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>718</v>
+        <v>110</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>57</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8878,13 +8875,13 @@
         <v>9003</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>522</v>
+        <v>620</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>122</v>
+        <v>717</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -8893,13 +8890,13 @@
         <v>6452</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>721</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>722</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -8908,19 +8905,19 @@
         <v>15455</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>724</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>19</v>
@@ -8929,13 +8926,13 @@
         <v>18687</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>725</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>727</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
@@ -8944,13 +8941,13 @@
         <v>10797</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>728</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>720</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>729</v>
       </c>
       <c r="M30" s="7">
         <v>36</v>
@@ -8959,19 +8956,19 @@
         <v>29484</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>730</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>15</v>
@@ -8980,13 +8977,13 @@
         <v>12679</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>733</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>369</v>
+        <v>441</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -8995,13 +8992,13 @@
         <v>7252</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>735</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>736</v>
       </c>
       <c r="M31" s="7">
         <v>28</v>
@@ -9010,13 +9007,13 @@
         <v>19931</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>737</v>
+        <v>359</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>478</v>
+        <v>69</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>54</v>
+        <v>736</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9031,7 +9028,7 @@
         <v>15324</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>174</v>
+        <v>737</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>738</v>
@@ -9064,10 +9061,10 @@
         <v>743</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>744</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9123,7 +9120,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9135,13 +9132,13 @@
         <v>607</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>207</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -9150,13 +9147,13 @@
         <v>1048</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>207</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -9165,13 +9162,13 @@
         <v>1655</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>750</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>751</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9189,10 +9186,10 @@
         <v>207</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -9201,13 +9198,13 @@
         <v>1701</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -9216,19 +9213,19 @@
         <v>1701</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>756</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
@@ -9237,13 +9234,13 @@
         <v>693</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>207</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -9252,13 +9249,13 @@
         <v>937</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>207</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -9267,19 +9264,19 @@
         <v>1629</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>762</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>763</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -9288,13 +9285,13 @@
         <v>717</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>765</v>
+        <v>369</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>207</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -9303,13 +9300,13 @@
         <v>1089</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>767</v>
+        <v>226</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>207</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -9318,13 +9315,13 @@
         <v>1806</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>576</v>
+        <v>767</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9339,13 +9336,13 @@
         <v>2443</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -9354,13 +9351,13 @@
         <v>1688</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>223</v>
+        <v>608</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -9369,13 +9366,13 @@
         <v>4131</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9443,13 +9440,13 @@
         <v>67630</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="H40" s="7">
         <v>107</v>
@@ -9458,13 +9455,13 @@
         <v>81179</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>41</v>
+        <v>778</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="M40" s="7">
         <v>168</v>
@@ -9473,13 +9470,13 @@
         <v>148809</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>782</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>783</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9494,10 +9491,10 @@
         <v>61375</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>784</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>785</v>
@@ -9512,10 +9509,10 @@
         <v>786</v>
       </c>
       <c r="K41" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>787</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>788</v>
       </c>
       <c r="M41" s="7">
         <v>112</v>
@@ -9524,19 +9521,19 @@
         <v>112410</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>789</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" s="7">
         <v>113</v>
@@ -9545,13 +9542,13 @@
         <v>126338</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>791</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>792</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>793</v>
       </c>
       <c r="H42" s="7">
         <v>142</v>
@@ -9560,13 +9557,13 @@
         <v>102440</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>794</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>795</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M42" s="7">
         <v>255</v>
@@ -9575,19 +9572,19 @@
         <v>228778</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>796</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>797</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="7">
         <v>77</v>
@@ -9596,13 +9593,13 @@
         <v>79969</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>799</v>
+        <v>124</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>27</v>
+        <v>797</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>800</v>
+        <v>36</v>
       </c>
       <c r="H43" s="7">
         <v>93</v>
@@ -9611,13 +9608,13 @@
         <v>71092</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>283</v>
+        <v>800</v>
       </c>
       <c r="M43" s="7">
         <v>170</v>
@@ -9626,13 +9623,13 @@
         <v>151061</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>803</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>804</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9647,13 +9644,13 @@
         <v>160130</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>806</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>807</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>808</v>
       </c>
       <c r="H44" s="7">
         <v>99</v>
@@ -9662,13 +9659,13 @@
         <v>77753</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>394</v>
+        <v>807</v>
       </c>
       <c r="K44" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>809</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>810</v>
       </c>
       <c r="M44" s="7">
         <v>195</v>
@@ -9677,13 +9674,13 @@
         <v>237884</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>811</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>812</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9739,7 +9736,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6708-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6708-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4BE1240-E423-4355-A871-092864447444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F2C43C1-691F-4B51-9C48-0904DA09AEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8803C9BD-6F9C-4834-9162-7677DDFCAF61}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9EE135BC-7E15-45B9-A2B5-B320C60CEB60}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="813">
   <si>
     <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2012 (Tasa respuesta: 33,83%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -220,7 +220,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>9,29%</t>
@@ -355,7 +355,7 @@
     <t>38,38%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>5,76%</t>
@@ -487,7 +487,7 @@
     <t>41,03%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>6,8%</t>
@@ -619,7 +619,7 @@
     <t>46,97%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>5,06%</t>
@@ -757,7 +757,7 @@
     <t>57,69%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>0%</t>
@@ -796,6 +796,12 @@
     <t>17,03%</t>
   </si>
   <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>7,51%</t>
   </si>
   <si>
@@ -1516,55 +1522,49 @@
     <t>30,57%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
     <t>22,79%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
   </si>
   <si>
     <t>77,21%</t>
   </si>
   <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
   </si>
   <si>
     <t>9,52%</t>
@@ -1699,787 +1699,784 @@
     <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2023 (Tasa respuesta: 10,29%)</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
   </si>
   <si>
     <t>18,45%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
   </si>
   <si>
     <t>17,38%</t>
   </si>
   <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
   </si>
   <si>
     <t>23,3%</t>
   </si>
   <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
+    <t>81,37%</t>
   </si>
   <si>
     <t>20,46%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
   </si>
 </sst>
 </file>
@@ -2891,8 +2888,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E771AD23-B4F1-42F2-BD3A-ADD57D6E67BD}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6030CF67-0329-438E-B517-32A065430A3F}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4851,55 +4848,49 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>252</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>95</v>
-      </c>
-      <c r="D40" s="7">
-        <v>106200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>253</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="H40" s="7">
-        <v>85</v>
-      </c>
-      <c r="I40" s="7">
-        <v>89869</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M40" s="7">
-        <v>180</v>
-      </c>
-      <c r="N40" s="7">
-        <v>196070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,49 +4899,43 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>96</v>
-      </c>
-      <c r="D41" s="7">
-        <v>106454</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>119</v>
+        <v>253</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H41" s="7">
-        <v>72</v>
-      </c>
-      <c r="I41" s="7">
-        <v>77061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="M41" s="7">
-        <v>168</v>
-      </c>
-      <c r="N41" s="7">
-        <v>183515</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N41" s="7"/>
       <c r="O41" s="7" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,49 +4944,43 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>280</v>
-      </c>
-      <c r="D42" s="7">
-        <v>287894</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="H42" s="7">
-        <v>184</v>
-      </c>
-      <c r="I42" s="7">
-        <v>202460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="M42" s="7">
-        <v>464</v>
-      </c>
-      <c r="N42" s="7">
-        <v>490354</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N42" s="7"/>
       <c r="O42" s="7" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>178</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,49 +4989,43 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>330</v>
-      </c>
-      <c r="D43" s="7">
-        <v>347615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="H43" s="7">
-        <v>212</v>
-      </c>
-      <c r="I43" s="7">
-        <v>225815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="M43" s="7">
-        <v>542</v>
-      </c>
-      <c r="N43" s="7">
-        <v>573430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N43" s="7"/>
       <c r="O43" s="7" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,49 +5034,43 @@
         <v>49</v>
       </c>
       <c r="C44" s="7">
-        <v>527</v>
-      </c>
-      <c r="D44" s="7">
-        <v>566698</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="H44" s="7">
-        <v>320</v>
-      </c>
-      <c r="I44" s="7">
-        <v>350312</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="M44" s="7">
-        <v>847</v>
-      </c>
-      <c r="N44" s="7">
-        <v>917010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N44" s="7"/>
       <c r="O44" s="7" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,63 +5079,366 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>95</v>
+      </c>
+      <c r="D46" s="7">
+        <v>106200</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H46" s="7">
+        <v>85</v>
+      </c>
+      <c r="I46" s="7">
+        <v>89869</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M46" s="7">
+        <v>180</v>
+      </c>
+      <c r="N46" s="7">
+        <v>196070</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>96</v>
+      </c>
+      <c r="D47" s="7">
+        <v>106454</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H47" s="7">
+        <v>72</v>
+      </c>
+      <c r="I47" s="7">
+        <v>77061</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M47" s="7">
+        <v>168</v>
+      </c>
+      <c r="N47" s="7">
+        <v>183515</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>280</v>
+      </c>
+      <c r="D48" s="7">
+        <v>287894</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H48" s="7">
+        <v>184</v>
+      </c>
+      <c r="I48" s="7">
+        <v>202460</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M48" s="7">
+        <v>464</v>
+      </c>
+      <c r="N48" s="7">
+        <v>490354</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>330</v>
+      </c>
+      <c r="D49" s="7">
+        <v>347615</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H49" s="7">
+        <v>212</v>
+      </c>
+      <c r="I49" s="7">
+        <v>225815</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="M49" s="7">
+        <v>542</v>
+      </c>
+      <c r="N49" s="7">
+        <v>573430</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="7">
+        <v>527</v>
+      </c>
+      <c r="D50" s="7">
+        <v>566698</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H50" s="7">
+        <v>320</v>
+      </c>
+      <c r="I50" s="7">
+        <v>350312</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="M50" s="7">
+        <v>847</v>
+      </c>
+      <c r="N50" s="7">
+        <v>917010</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1328</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1414861</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="7">
         <v>873</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>945517</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M51" s="7">
         <v>2201</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2360378</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>293</v>
+      <c r="O51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5181,8 +5451,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9112FE28-AA01-4A39-BE58-76AB92343393}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57752CDB-045A-4D02-B607-9023139C0C55}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5198,7 +5468,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5305,13 +5575,13 @@
         <v>11808</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -5320,13 +5590,13 @@
         <v>9164</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -5335,13 +5605,13 @@
         <v>20973</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,13 +5626,13 @@
         <v>14720</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -5371,10 +5641,10 @@
         <v>10022</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>86</v>
@@ -5386,13 +5656,13 @@
         <v>24742</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,13 +5677,13 @@
         <v>23336</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -5422,13 +5692,13 @@
         <v>28021</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M6" s="7">
         <v>50</v>
@@ -5437,13 +5707,13 @@
         <v>51357</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,13 +5728,13 @@
         <v>19318</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5473,13 +5743,13 @@
         <v>24500</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -5488,13 +5758,13 @@
         <v>43818</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,13 +5779,13 @@
         <v>9927</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -5524,13 +5794,13 @@
         <v>20148</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M8" s="7">
         <v>30</v>
@@ -5539,13 +5809,13 @@
         <v>30075</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,13 +5883,13 @@
         <v>30795</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -5628,13 +5898,13 @@
         <v>30721</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M10" s="7">
         <v>60</v>
@@ -5643,13 +5913,13 @@
         <v>61516</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +5934,13 @@
         <v>52103</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H11" s="7">
         <v>44</v>
@@ -5679,13 +5949,13 @@
         <v>41595</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M11" s="7">
         <v>94</v>
@@ -5694,10 +5964,10 @@
         <v>93698</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>221</v>
@@ -5715,13 +5985,13 @@
         <v>105735</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H12" s="7">
         <v>81</v>
@@ -5730,13 +6000,13 @@
         <v>76754</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M12" s="7">
         <v>180</v>
@@ -5745,10 +6015,10 @@
         <v>182490</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>243</v>
@@ -5766,13 +6036,13 @@
         <v>77034</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -5781,13 +6051,13 @@
         <v>66849</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M13" s="7">
         <v>147</v>
@@ -5796,13 +6066,13 @@
         <v>143883</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,13 +6087,13 @@
         <v>78517</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>56</v>
@@ -5832,13 +6102,13 @@
         <v>57797</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>131</v>
@@ -5850,10 +6120,10 @@
         <v>168</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,13 +6191,13 @@
         <v>46291</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>155</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -5936,13 +6206,13 @@
         <v>33934</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M16" s="7">
         <v>76</v>
@@ -5951,13 +6221,13 @@
         <v>80225</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,13 +6242,13 @@
         <v>64530</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -5987,13 +6257,13 @@
         <v>46421</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M17" s="7">
         <v>111</v>
@@ -6002,13 +6272,13 @@
         <v>110951</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,10 +6293,10 @@
         <v>130670</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>188</v>
@@ -6038,13 +6308,13 @@
         <v>80619</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M18" s="7">
         <v>209</v>
@@ -6053,13 +6323,13 @@
         <v>211289</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,13 +6344,13 @@
         <v>97291</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
@@ -6089,10 +6359,10 @@
         <v>73990</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>139</v>
@@ -6104,13 +6374,13 @@
         <v>171281</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6395,13 @@
         <v>120806</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H20" s="7">
         <v>80</v>
@@ -6140,13 +6410,13 @@
         <v>82450</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>195</v>
@@ -6155,13 +6425,13 @@
         <v>203256</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6203,7 +6473,7 @@
         <v>756</v>
       </c>
       <c r="N21" s="7">
-        <v>777002</v>
+        <v>777001</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -6229,13 +6499,13 @@
         <v>31164</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -6244,13 +6514,13 @@
         <v>28415</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -6265,7 +6535,7 @@
         <v>161</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6550,13 @@
         <v>47647</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H23" s="7">
         <v>36</v>
@@ -6295,7 +6565,7 @@
         <v>39805</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>111</v>
@@ -6310,13 +6580,13 @@
         <v>87452</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,13 +6601,13 @@
         <v>89769</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H24" s="7">
         <v>59</v>
@@ -6346,13 +6616,13 @@
         <v>63620</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>134</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M24" s="7">
         <v>139</v>
@@ -6361,13 +6631,13 @@
         <v>153389</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,13 +6652,13 @@
         <v>95693</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H25" s="7">
         <v>54</v>
@@ -6397,13 +6667,13 @@
         <v>57332</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M25" s="7">
         <v>141</v>
@@ -6415,10 +6685,10 @@
         <v>137</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6433,13 +6703,13 @@
         <v>103455</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H26" s="7">
         <v>49</v>
@@ -6448,13 +6718,13 @@
         <v>53946</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>251</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M26" s="7">
         <v>141</v>
@@ -6463,13 +6733,13 @@
         <v>157402</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,13 +6807,13 @@
         <v>15356</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
@@ -6552,13 +6822,13 @@
         <v>17737</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
@@ -6567,13 +6837,13 @@
         <v>33092</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,13 +6858,13 @@
         <v>15496</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H29" s="7">
         <v>16</v>
@@ -6603,13 +6873,13 @@
         <v>19181</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M29" s="7">
         <v>30</v>
@@ -6618,13 +6888,13 @@
         <v>34677</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6639,13 +6909,13 @@
         <v>46610</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -6654,13 +6924,13 @@
         <v>24905</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M30" s="7">
         <v>61</v>
@@ -6669,13 +6939,13 @@
         <v>71516</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6690,13 +6960,13 @@
         <v>29689</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -6705,13 +6975,13 @@
         <v>18669</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M31" s="7">
         <v>43</v>
@@ -6720,13 +6990,13 @@
         <v>48358</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6741,13 +7011,13 @@
         <v>58576</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -6756,13 +7026,13 @@
         <v>25387</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M32" s="7">
         <v>74</v>
@@ -6771,13 +7041,13 @@
         <v>83963</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>136</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6851,7 +7121,7 @@
         <v>240</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>242</v>
+        <v>493</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6866,7 +7136,7 @@
         <v>240</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6881,7 +7151,7 @@
         <v>240</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>492</v>
+        <v>427</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6902,7 +7172,7 @@
         <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>242</v>
+        <v>493</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -6911,13 +7181,13 @@
         <v>1183</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>207</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -6926,13 +7196,13 @@
         <v>1183</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>207</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6953,7 +7223,7 @@
         <v>240</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>242</v>
+        <v>493</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6968,7 +7238,7 @@
         <v>240</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6983,7 +7253,7 @@
         <v>240</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>492</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,16 +7262,16 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" s="7">
-        <v>2870</v>
+        <v>2075</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>498</v>
+        <v>207</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>499</v>
@@ -7019,13 +7289,13 @@
         <v>240</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M37" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N37" s="7">
-        <v>2870</v>
+        <v>2075</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>500</v>
@@ -7055,7 +7325,7 @@
         <v>503</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>504</v>
+        <v>244</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -7064,10 +7334,10 @@
         <v>4007</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>244</v>
@@ -7079,13 +7349,13 @@
         <v>7123</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7094,10 +7364,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="7">
-        <v>5985</v>
+        <v>5190</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>59</v>
@@ -7124,10 +7394,10 @@
         <v>59</v>
       </c>
       <c r="M39" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N39" s="7">
-        <v>11176</v>
+        <v>10381</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>59</v>
@@ -7141,55 +7411,53 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>252</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>135414</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>509</v>
+        <v>207</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>510</v>
+        <v>240</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H40" s="7">
-        <v>114</v>
-      </c>
-      <c r="I40" s="7">
-        <v>119970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>512</v>
+        <v>253</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>513</v>
+        <v>253</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>514</v>
+        <v>253</v>
       </c>
       <c r="M40" s="7">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="N40" s="7">
-        <v>255384</v>
+        <v>0</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>515</v>
+        <v>207</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>516</v>
+        <v>240</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7198,49 +7466,47 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
-        <v>194496</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>518</v>
+        <v>207</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>519</v>
+        <v>240</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="H41" s="7">
-        <v>156</v>
-      </c>
-      <c r="I41" s="7">
-        <v>158207</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>521</v>
+        <v>253</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>522</v>
+        <v>253</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>523</v>
+        <v>253</v>
       </c>
       <c r="M41" s="7">
-        <v>339</v>
+        <v>0</v>
       </c>
       <c r="N41" s="7">
-        <v>352702</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>524</v>
+        <v>207</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>525</v>
+        <v>240</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,49 +7515,47 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>366</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>396121</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>527</v>
+        <v>207</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>528</v>
+        <v>240</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="H42" s="7">
-        <v>273</v>
-      </c>
-      <c r="I42" s="7">
-        <v>273919</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>530</v>
+        <v>253</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>531</v>
+        <v>253</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>532</v>
+        <v>253</v>
       </c>
       <c r="M42" s="7">
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>670041</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>533</v>
+        <v>207</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>534</v>
+        <v>240</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>535</v>
+        <v>507</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7300,49 +7564,47 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="D43" s="7">
-        <v>321894</v>
+        <v>795</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>536</v>
+        <v>244</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>537</v>
+        <v>508</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>538</v>
+        <v>59</v>
       </c>
       <c r="H43" s="7">
-        <v>239</v>
-      </c>
-      <c r="I43" s="7">
-        <v>241341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>539</v>
+        <v>253</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>540</v>
+        <v>253</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>541</v>
+        <v>253</v>
       </c>
       <c r="M43" s="7">
-        <v>542</v>
+        <v>1</v>
       </c>
       <c r="N43" s="7">
-        <v>563234</v>
+        <v>795</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>542</v>
+        <v>244</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>543</v>
+        <v>508</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>544</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7351,49 +7613,47 @@
         <v>49</v>
       </c>
       <c r="C44" s="7">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>374397</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>545</v>
+        <v>207</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>546</v>
+        <v>240</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>547</v>
+        <v>507</v>
       </c>
       <c r="H44" s="7">
-        <v>231</v>
-      </c>
-      <c r="I44" s="7">
-        <v>243736</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>548</v>
+        <v>253</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>549</v>
+        <v>253</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>407</v>
+        <v>253</v>
       </c>
       <c r="M44" s="7">
-        <v>578</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>618133</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>550</v>
+        <v>207</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>402</v>
+        <v>240</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>551</v>
+        <v>507</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7402,63 +7662,370 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>795</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>795</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>124</v>
+      </c>
+      <c r="D46" s="7">
+        <v>135414</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="H46" s="7">
+        <v>114</v>
+      </c>
+      <c r="I46" s="7">
+        <v>119970</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="M46" s="7">
+        <v>238</v>
+      </c>
+      <c r="N46" s="7">
+        <v>255384</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>183</v>
+      </c>
+      <c r="D47" s="7">
+        <v>194496</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="H47" s="7">
+        <v>156</v>
+      </c>
+      <c r="I47" s="7">
+        <v>158207</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="M47" s="7">
+        <v>339</v>
+      </c>
+      <c r="N47" s="7">
+        <v>352702</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>366</v>
+      </c>
+      <c r="D48" s="7">
+        <v>396121</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="H48" s="7">
+        <v>273</v>
+      </c>
+      <c r="I48" s="7">
+        <v>273919</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="M48" s="7">
+        <v>639</v>
+      </c>
+      <c r="N48" s="7">
+        <v>670041</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>303</v>
+      </c>
+      <c r="D49" s="7">
+        <v>321894</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="H49" s="7">
+        <v>239</v>
+      </c>
+      <c r="I49" s="7">
+        <v>241341</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="M49" s="7">
+        <v>542</v>
+      </c>
+      <c r="N49" s="7">
+        <v>563234</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="7">
+        <v>347</v>
+      </c>
+      <c r="D50" s="7">
+        <v>374397</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="H50" s="7">
+        <v>231</v>
+      </c>
+      <c r="I50" s="7">
+        <v>243736</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="M50" s="7">
+        <v>578</v>
+      </c>
+      <c r="N50" s="7">
+        <v>618133</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1323</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1422322</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="7">
         <v>1013</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>1037172</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M51" s="7">
         <v>2336</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2459494</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>293</v>
+      <c r="O51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7471,8 +8038,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333F7F5E-4B0B-4CA9-BC5F-B9B94291DD04}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449D4EBB-7114-40FB-A5D9-FBC2A5F106B5}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7592,7 +8159,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>553</v>
@@ -7601,37 +8168,37 @@
         <v>207</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>253</v>
+        <v>554</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>5677</v>
+        <v>4831</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>5999</v>
+        <v>5169</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>419</v>
+        <v>558</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7643,46 +8210,46 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>4343</v>
+        <v>3853</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>5304</v>
+        <v>4593</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>9647</v>
+        <v>8446</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>387</v>
+        <v>566</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7694,46 +8261,46 @@
         <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>9430</v>
+        <v>11203</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>4166</v>
+        <v>3652</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
       </c>
       <c r="N6" s="7">
-        <v>13596</v>
+        <v>14855</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7745,46 +8312,46 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1953</v>
+        <v>1662</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>207</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>6653</v>
+        <v>6072</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>578</v>
+        <v>510</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>8605</v>
+        <v>7734</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>421</v>
+        <v>582</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,46 +8363,46 @@
         <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>6539</v>
+        <v>6335</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>6942</v>
+        <v>6003</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>585</v>
+        <v>125</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>13481</v>
+        <v>12338</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>589</v>
+        <v>515</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7847,7 +8414,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="7">
-        <v>22585</v>
+        <v>23392</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>59</v>
@@ -7862,7 +8429,7 @@
         <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>28742</v>
+        <v>25150</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>59</v>
@@ -7877,7 +8444,7 @@
         <v>32</v>
       </c>
       <c r="N9" s="7">
-        <v>51327</v>
+        <v>48542</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>59</v>
@@ -7900,46 +8467,46 @@
         <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>16864</v>
+        <v>15317</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
       </c>
       <c r="I10" s="7">
-        <v>21206</v>
+        <v>18933</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
       </c>
       <c r="N10" s="7">
-        <v>38071</v>
+        <v>34250</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7951,46 +8518,46 @@
         <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>22963</v>
+        <v>21432</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>540</v>
+        <v>601</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>599</v>
+        <v>341</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
       </c>
       <c r="I11" s="7">
-        <v>15069</v>
+        <v>13376</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>605</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
       </c>
       <c r="N11" s="7">
-        <v>38032</v>
+        <v>34808</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8002,46 +8569,46 @@
         <v>28</v>
       </c>
       <c r="D12" s="7">
-        <v>36950</v>
+        <v>36722</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>542</v>
+        <v>610</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="H12" s="7">
         <v>24</v>
       </c>
       <c r="I12" s="7">
-        <v>24639</v>
+        <v>21755</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>608</v>
+        <v>242</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="M12" s="7">
         <v>52</v>
       </c>
       <c r="N12" s="7">
-        <v>61589</v>
+        <v>58477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,46 +8620,46 @@
         <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>13830</v>
+        <v>13005</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>19782</v>
+        <v>18503</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>619</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
       </c>
       <c r="N13" s="7">
-        <v>33612</v>
+        <v>31508</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8104,46 +8671,46 @@
         <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>20136</v>
+        <v>20576</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>10657</v>
+        <v>9769</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
       </c>
       <c r="N14" s="7">
-        <v>30793</v>
+        <v>30346</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>629</v>
+        <v>218</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8155,7 +8722,7 @@
         <v>70</v>
       </c>
       <c r="D15" s="7">
-        <v>110743</v>
+        <v>107053</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -8170,7 +8737,7 @@
         <v>88</v>
       </c>
       <c r="I15" s="7">
-        <v>91354</v>
+        <v>82336</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -8185,7 +8752,7 @@
         <v>158</v>
       </c>
       <c r="N15" s="7">
-        <v>202097</v>
+        <v>189389</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -8208,10 +8775,10 @@
         <v>17</v>
       </c>
       <c r="D16" s="7">
-        <v>17539</v>
+        <v>17026</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>632</v>
+        <v>561</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>633</v>
@@ -8223,7 +8790,7 @@
         <v>31</v>
       </c>
       <c r="I16" s="7">
-        <v>21789</v>
+        <v>19726</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>635</v>
@@ -8232,22 +8799,22 @@
         <v>636</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>637</v>
+        <v>44</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
       </c>
       <c r="N16" s="7">
-        <v>39328</v>
+        <v>36751</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>639</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8259,46 +8826,46 @@
         <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>13539</v>
+        <v>12970</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>641</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>642</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
       </c>
       <c r="I17" s="7">
-        <v>11827</v>
+        <v>10468</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>644</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>645</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
       </c>
       <c r="N17" s="7">
-        <v>25367</v>
+        <v>23438</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>647</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8310,46 +8877,46 @@
         <v>23</v>
       </c>
       <c r="D18" s="7">
-        <v>22518</v>
+        <v>21442</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>649</v>
+        <v>540</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>650</v>
+        <v>484</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H18" s="7">
         <v>35</v>
       </c>
       <c r="I18" s="7">
-        <v>24051</v>
+        <v>22566</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="M18" s="7">
         <v>58</v>
       </c>
       <c r="N18" s="7">
-        <v>46569</v>
+        <v>44008</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8361,46 +8928,46 @@
         <v>25</v>
       </c>
       <c r="D19" s="7">
-        <v>27096</v>
+        <v>25409</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
       </c>
       <c r="I19" s="7">
-        <v>15786</v>
+        <v>14848</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>483</v>
+        <v>660</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
       </c>
       <c r="N19" s="7">
-        <v>42883</v>
+        <v>40257</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>629</v>
+        <v>349</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8412,46 +8979,46 @@
         <v>26</v>
       </c>
       <c r="D20" s="7">
-        <v>27759</v>
+        <v>26537</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>666</v>
+        <v>479</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>667</v>
+        <v>147</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
       </c>
       <c r="I20" s="7">
-        <v>25653</v>
+        <v>23991</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="M20" s="7">
         <v>61</v>
       </c>
       <c r="N20" s="7">
-        <v>53412</v>
+        <v>50527</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>434</v>
+        <v>669</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8463,7 +9030,7 @@
         <v>103</v>
       </c>
       <c r="D21" s="7">
-        <v>108451</v>
+        <v>103383</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>59</v>
@@ -8478,7 +9045,7 @@
         <v>137</v>
       </c>
       <c r="I21" s="7">
-        <v>99107</v>
+        <v>91599</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -8493,7 +9060,7 @@
         <v>240</v>
       </c>
       <c r="N21" s="7">
-        <v>207558</v>
+        <v>194982</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -8516,46 +9083,46 @@
         <v>18</v>
       </c>
       <c r="D22" s="7">
-        <v>20128</v>
+        <v>18329</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
       </c>
       <c r="I22" s="7">
-        <v>24614</v>
+        <v>22188</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>678</v>
+        <v>585</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
       </c>
       <c r="N22" s="7">
-        <v>44741</v>
+        <v>40517</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8567,46 +9134,46 @@
         <v>12</v>
       </c>
       <c r="D23" s="7">
-        <v>11527</v>
+        <v>10533</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
       </c>
       <c r="I23" s="7">
-        <v>10682</v>
+        <v>9871</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>633</v>
+        <v>681</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="M23" s="7">
         <v>29</v>
       </c>
       <c r="N23" s="7">
-        <v>22209</v>
+        <v>20404</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>567</v>
+        <v>686</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8618,46 +9185,46 @@
         <v>37</v>
       </c>
       <c r="D24" s="7">
-        <v>38061</v>
+        <v>36574</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>689</v>
+        <v>344</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>687</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H24" s="7">
         <v>61</v>
       </c>
       <c r="I24" s="7">
-        <v>37849</v>
+        <v>35067</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>434</v>
+        <v>689</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>691</v>
+        <v>590</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="M24" s="7">
         <v>98</v>
       </c>
       <c r="N24" s="7">
-        <v>75910</v>
+        <v>71640</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>693</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8669,46 +9236,46 @@
         <v>27</v>
       </c>
       <c r="D25" s="7">
-        <v>23695</v>
+        <v>23043</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>696</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>698</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
       </c>
       <c r="I25" s="7">
-        <v>20529</v>
+        <v>19455</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>699</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>700</v>
       </c>
       <c r="M25" s="7">
         <v>60</v>
       </c>
       <c r="N25" s="7">
-        <v>44224</v>
+        <v>42498</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>702</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8720,13 +9287,13 @@
         <v>36</v>
       </c>
       <c r="D26" s="7">
-        <v>87930</v>
+        <v>278692</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>705</v>
@@ -8735,7 +9302,7 @@
         <v>36</v>
       </c>
       <c r="I26" s="7">
-        <v>24095</v>
+        <v>22317</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>706</v>
@@ -8744,22 +9311,22 @@
         <v>707</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>708</v>
+        <v>90</v>
       </c>
       <c r="M26" s="7">
         <v>72</v>
       </c>
       <c r="N26" s="7">
-        <v>112026</v>
+        <v>301008</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>709</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8771,7 +9338,7 @@
         <v>130</v>
       </c>
       <c r="D27" s="7">
-        <v>181341</v>
+        <v>367170</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>59</v>
@@ -8786,7 +9353,7 @@
         <v>183</v>
       </c>
       <c r="I27" s="7">
-        <v>117769</v>
+        <v>108897</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -8801,7 +9368,7 @@
         <v>313</v>
       </c>
       <c r="N27" s="7">
-        <v>299110</v>
+        <v>476067</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
@@ -8824,46 +9391,46 @@
         <v>13</v>
       </c>
       <c r="D28" s="7">
-        <v>12172</v>
+        <v>11249</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>712</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
       </c>
       <c r="I28" s="7">
-        <v>6845</v>
+        <v>6130</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>714</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>716</v>
       </c>
       <c r="M28" s="7">
         <v>24</v>
       </c>
       <c r="N28" s="7">
-        <v>19016</v>
+        <v>17378</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>717</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>718</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8875,22 +9442,22 @@
         <v>9</v>
       </c>
       <c r="D29" s="7">
-        <v>9003</v>
+        <v>8024</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>522</v>
+        <v>718</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>122</v>
+        <v>719</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>719</v>
+        <v>85</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
       </c>
       <c r="I29" s="7">
-        <v>6452</v>
+        <v>5926</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>720</v>
@@ -8899,22 +9466,22 @@
         <v>721</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>722</v>
+        <v>280</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
       </c>
       <c r="N29" s="7">
-        <v>15455</v>
+        <v>13949</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>427</v>
+        <v>722</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>723</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>724</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8926,43 +9493,43 @@
         <v>19</v>
       </c>
       <c r="D30" s="7">
-        <v>18687</v>
+        <v>17686</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>726</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>727</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
       </c>
       <c r="I30" s="7">
-        <v>10797</v>
+        <v>9682</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>728</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>720</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>729</v>
       </c>
       <c r="M30" s="7">
         <v>36</v>
       </c>
       <c r="N30" s="7">
-        <v>29484</v>
+        <v>27367</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>730</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>731</v>
@@ -8977,7 +9544,7 @@
         <v>15</v>
       </c>
       <c r="D31" s="7">
-        <v>12679</v>
+        <v>12180</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>732</v>
@@ -8986,13 +9553,13 @@
         <v>733</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>369</v>
+        <v>438</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
       </c>
       <c r="I31" s="7">
-        <v>7252</v>
+        <v>6943</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>734</v>
@@ -9007,16 +9574,16 @@
         <v>28</v>
       </c>
       <c r="N31" s="7">
-        <v>19931</v>
+        <v>19123</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>737</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>478</v>
+        <v>17</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>54</v>
+        <v>738</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9028,40 +9595,40 @@
         <v>16</v>
       </c>
       <c r="D32" s="7">
-        <v>15324</v>
+        <v>14311</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>174</v>
+        <v>739</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="H32" s="7">
         <v>15</v>
       </c>
       <c r="I32" s="7">
-        <v>8717</v>
+        <v>8120</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>740</v>
+        <v>168</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M32" s="7">
         <v>31</v>
       </c>
       <c r="N32" s="7">
-        <v>24041</v>
+        <v>22431</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>743</v>
+        <v>361</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>744</v>
@@ -9079,7 +9646,7 @@
         <v>72</v>
       </c>
       <c r="D33" s="7">
-        <v>67864</v>
+        <v>63449</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>59</v>
@@ -9094,7 +9661,7 @@
         <v>66</v>
       </c>
       <c r="I33" s="7">
-        <v>40063</v>
+        <v>36800</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
@@ -9109,7 +9676,7 @@
         <v>138</v>
       </c>
       <c r="N33" s="7">
-        <v>107927</v>
+        <v>100248</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>59</v>
@@ -9132,7 +9699,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>607</v>
+        <v>584</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>746</v>
@@ -9147,7 +9714,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="7">
-        <v>1048</v>
+        <v>977</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>748</v>
@@ -9162,7 +9729,7 @@
         <v>3</v>
       </c>
       <c r="N34" s="7">
-        <v>1655</v>
+        <v>1561</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>750</v>
@@ -9192,37 +9759,37 @@
         <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>753</v>
+        <v>242</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
       </c>
       <c r="I35" s="7">
-        <v>1701</v>
+        <v>1586</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>545</v>
+        <v>223</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>754</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>755</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
       </c>
       <c r="N35" s="7">
-        <v>1701</v>
+        <v>1586</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>756</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9234,46 +9801,46 @@
         <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>693</v>
+        <v>664</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>207</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
       </c>
       <c r="I36" s="7">
-        <v>937</v>
+        <v>875</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>569</v>
+        <v>759</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>207</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>761</v>
+        <v>142</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
       </c>
       <c r="N36" s="7">
-        <v>1629</v>
+        <v>1539</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>762</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>763</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9285,46 +9852,46 @@
         <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>717</v>
+        <v>784</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>207</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
       </c>
       <c r="I37" s="7">
-        <v>1089</v>
+        <v>1053</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>207</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
       </c>
       <c r="N37" s="7">
-        <v>1806</v>
+        <v>1837</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>769</v>
+        <v>89</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>576</v>
+        <v>768</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9333,49 +9900,49 @@
         <v>49</v>
       </c>
       <c r="C38" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" s="7">
-        <v>2443</v>
+        <v>1510</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>771</v>
+        <v>142</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>244</v>
+        <v>770</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
       </c>
       <c r="I38" s="7">
-        <v>1688</v>
+        <v>1581</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>223</v>
+        <v>771</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>6</v>
+      </c>
+      <c r="N38" s="7">
+        <v>3092</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="M38" s="7">
-        <v>7</v>
-      </c>
-      <c r="N38" s="7">
-        <v>4131</v>
-      </c>
-      <c r="O38" s="7" t="s">
+      <c r="P38" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>775</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>776</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9384,10 +9951,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" s="7">
-        <v>4460</v>
+        <v>3542</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>59</v>
@@ -9402,7 +9969,7 @@
         <v>12</v>
       </c>
       <c r="I39" s="7">
-        <v>6462</v>
+        <v>6073</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>59</v>
@@ -9414,10 +9981,10 @@
         <v>59</v>
       </c>
       <c r="M39" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N39" s="7">
-        <v>10922</v>
+        <v>9615</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>59</v>
@@ -9431,55 +9998,53 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>252</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>67630</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>778</v>
+        <v>207</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>779</v>
+        <v>240</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>780</v>
+        <v>507</v>
       </c>
       <c r="H40" s="7">
-        <v>107</v>
-      </c>
-      <c r="I40" s="7">
-        <v>81179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>399</v>
+        <v>253</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>781</v>
+        <v>253</v>
       </c>
       <c r="M40" s="7">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="N40" s="7">
-        <v>148809</v>
+        <v>0</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>782</v>
+        <v>207</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>783</v>
+        <v>240</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>554</v>
+        <v>507</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9488,49 +10053,47 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
-        <v>61375</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>784</v>
+        <v>207</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>785</v>
+        <v>507</v>
       </c>
       <c r="H41" s="7">
-        <v>64</v>
-      </c>
-      <c r="I41" s="7">
-        <v>51035</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>786</v>
+        <v>253</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>787</v>
+        <v>253</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>788</v>
+        <v>253</v>
       </c>
       <c r="M41" s="7">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="N41" s="7">
-        <v>112410</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>789</v>
+        <v>207</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>513</v>
+        <v>240</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>790</v>
+        <v>507</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9539,49 +10102,47 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>126338</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>791</v>
+        <v>207</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>792</v>
+        <v>240</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>793</v>
+        <v>507</v>
       </c>
       <c r="H42" s="7">
-        <v>142</v>
-      </c>
-      <c r="I42" s="7">
-        <v>102440</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>794</v>
+        <v>253</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>795</v>
+        <v>253</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>93</v>
+        <v>253</v>
       </c>
       <c r="M42" s="7">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>228778</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>796</v>
+        <v>207</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>797</v>
+        <v>240</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>798</v>
+        <v>507</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9590,49 +10151,47 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>79969</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>799</v>
+        <v>207</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>27</v>
+        <v>240</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>800</v>
+        <v>507</v>
       </c>
       <c r="H43" s="7">
-        <v>93</v>
-      </c>
-      <c r="I43" s="7">
-        <v>71092</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>801</v>
+        <v>253</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>802</v>
+        <v>253</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="M43" s="7">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>151061</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>803</v>
+        <v>207</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>804</v>
+        <v>240</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>805</v>
+        <v>507</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9641,49 +10200,47 @@
         <v>49</v>
       </c>
       <c r="C44" s="7">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="D44" s="7">
-        <v>160130</v>
+        <v>746</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>806</v>
+        <v>244</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>807</v>
+        <v>508</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>808</v>
+        <v>59</v>
       </c>
       <c r="H44" s="7">
-        <v>99</v>
-      </c>
-      <c r="I44" s="7">
-        <v>77753</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>394</v>
+        <v>253</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>809</v>
+        <v>253</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>810</v>
+        <v>253</v>
       </c>
       <c r="M44" s="7">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="N44" s="7">
-        <v>237884</v>
+        <v>746</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>811</v>
+        <v>244</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>812</v>
+        <v>508</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>813</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9692,63 +10249,370 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>746</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>746</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>61</v>
+      </c>
+      <c r="D46" s="7">
+        <v>62842</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="H46" s="7">
+        <v>107</v>
+      </c>
+      <c r="I46" s="7">
+        <v>72784</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="M46" s="7">
+        <v>168</v>
+      </c>
+      <c r="N46" s="7">
+        <v>135626</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>48</v>
+      </c>
+      <c r="D47" s="7">
+        <v>56812</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="H47" s="7">
+        <v>64</v>
+      </c>
+      <c r="I47" s="7">
+        <v>45819</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="M47" s="7">
+        <v>112</v>
+      </c>
+      <c r="N47" s="7">
+        <v>102632</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>113</v>
+      </c>
+      <c r="D48" s="7">
+        <v>124290</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H48" s="7">
+        <v>142</v>
+      </c>
+      <c r="I48" s="7">
+        <v>93597</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="M48" s="7">
+        <v>255</v>
+      </c>
+      <c r="N48" s="7">
+        <v>217886</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>77</v>
+      </c>
+      <c r="D49" s="7">
+        <v>76083</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="H49" s="7">
+        <v>93</v>
+      </c>
+      <c r="I49" s="7">
+        <v>66874</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="M49" s="7">
+        <v>170</v>
+      </c>
+      <c r="N49" s="7">
+        <v>142957</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="7">
+        <v>96</v>
+      </c>
+      <c r="D50" s="7">
+        <v>348707</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="H50" s="7">
+        <v>99</v>
+      </c>
+      <c r="I50" s="7">
+        <v>71780</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="M50" s="7">
+        <v>195</v>
+      </c>
+      <c r="N50" s="7">
+        <v>420487</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>395</v>
       </c>
-      <c r="D45" s="7">
-        <v>495443</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>668734</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="7">
         <v>505</v>
       </c>
-      <c r="I45" s="7">
-        <v>383499</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>350855</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M51" s="7">
         <v>900</v>
       </c>
-      <c r="N45" s="7">
-        <v>878942</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>293</v>
+      <c r="N51" s="7">
+        <v>1019589</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
